--- a/classfiers/chain/welm/chain_welm_lin_results.xlsx
+++ b/classfiers/chain/welm/chain_welm_lin_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9742489270386266</v>
+        <v>0.9483568075117371</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.3125</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9875183553597651</v>
+        <v>0.9793781725888325</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9914163090128756</v>
+        <v>0.9812206572769953</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.7777777777777777</v>
       </c>
       <c r="E3" t="n">
-        <v>0.987012987012987</v>
+        <v>0.9931034482758621</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9914163090128756</v>
+        <v>0.9433962264150944</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9870129870129871</v>
+        <v>0.9844331641285956</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9870689655172413</v>
+        <v>0.9575471698113207</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9723435225618632</v>
+        <v>0.9900990099009901</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9870689655172413</v>
+        <v>0.9669811320754716</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9883551673944687</v>
+        <v>0.9895833333333334</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9862438952197721</v>
+        <v>0.9595003986181239</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.3458333333333333</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.4714710126474833</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9844486038684142</v>
+        <v>0.9873194256455227</v>
       </c>
     </row>
   </sheetData>
